--- a/data/trans_bre/IP1003-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1003-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,86</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-24,97%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-59,99%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-20,15%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-17,29%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 2,0</t>
+          <t>-6,31; 27,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -1,27</t>
+          <t>0,0; 19,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 2,26</t>
+          <t>0,0; 27,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 3,28</t>
+          <t>-31,7; 20,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,69; 40,04</t>
+          <t>-68,95; 1054,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-81,31; -15,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,92; 43,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 52,38</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>-24,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,19%</t>
+          <t>-59,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>-20,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-52,25%</t>
+          <t>-17,29%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 3,24</t>
+          <t>-5,52; 2,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 2,68</t>
+          <t>-8,32; -1,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 4,24</t>
+          <t>-5,25; 2,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 0,11</t>
+          <t>-6,46; 3,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,72; 84,1</t>
+          <t>-58,69; 40,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,19; 68,01</t>
+          <t>-81,31; -15,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,96; 173,61</t>
+          <t>-57,92; 43,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-80,91; 16,12</t>
+          <t>-52,6; 52,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>-22,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-10,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>-39,34%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 27,13</t>
+          <t>-5,21; 2,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,12</t>
+          <t>-4,37; 3,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,7</t>
+          <t>-3,45; 3,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 20,71</t>
+          <t>-7,24; 1,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,95; 1054,74</t>
+          <t>-64,9; 59,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,42; 105,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,27; 172,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,34; 84,97</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-22,01%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,05%</t>
+          <t>-23,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-39,34%</t>
+          <t>-52,25%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,52</t>
+          <t>-3,91; 3,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 3,39</t>
+          <t>-4,75; 2,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 3,16</t>
+          <t>-2,87; 4,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 1,68</t>
+          <t>-8,82; 0,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-64,9; 59,96</t>
+          <t>-54,72; 84,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-65,42; 105,63</t>
+          <t>-63,19; 68,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-63,27; 172,05</t>
+          <t>-50,96; 173,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-79,34; 84,97</t>
+          <t>-80,91; 16,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1003-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1003-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 27,13</t>
+          <t>-7,63; 25,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,12</t>
+          <t>0,0; 19,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,7</t>
+          <t>0,0; 27,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-68,95; 1054,74</t>
+          <t>-68,84; 993,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 3,02</t>
+          <t>-7,55; 3,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 8,49</t>
+          <t>-2,71; 7,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -0,38</t>
+          <t>-9,9; -0,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 3,96</t>
+          <t>-9,33; 3,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,94; 54,72</t>
+          <t>-65,13; 59,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 262,24</t>
+          <t>-39,55; 243,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-92,27; 24,78</t>
+          <t>-93,15; 0,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,69; 88,66</t>
+          <t>-69,93; 74,07</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 2,0</t>
+          <t>-6,09; 1,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,32; -1,27</t>
+          <t>-8,75; -1,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 2,26</t>
+          <t>-5,32; 2,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 3,28</t>
+          <t>-6,36; 3,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,69; 40,04</t>
+          <t>-61,11; 31,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,31; -15,05</t>
+          <t>-82,33; -17,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-57,92; 43,53</t>
+          <t>-57,47; 36,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 52,38</t>
+          <t>-53,85; 52,13</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,52</t>
+          <t>-5,5; 2,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 3,39</t>
+          <t>-4,26; 3,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 3,16</t>
+          <t>-3,99; 3,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 1,68</t>
+          <t>-6,74; 2,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,9; 59,96</t>
+          <t>-67,47; 79,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,42; 105,63</t>
+          <t>-63,2; 104,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,27; 172,05</t>
+          <t>-69,99; 177,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-79,34; 84,97</t>
+          <t>-77,61; 70,36</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 3,24</t>
+          <t>-3,82; 3,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 2,68</t>
+          <t>-5,19; 2,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 4,24</t>
+          <t>-2,64; 4,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 0,11</t>
+          <t>-8,86; 0,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-54,72; 84,1</t>
+          <t>-54,0; 106,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-63,19; 68,01</t>
+          <t>-64,98; 64,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-50,96; 173,61</t>
+          <t>-48,24; 168,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-80,91; 16,12</t>
+          <t>-81,19; 15,28</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,07</t>
+          <t>-3,14; 1,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 0,58</t>
+          <t>-3,48; 0,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,31</t>
+          <t>-2,46; 1,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,2; -0,1</t>
+          <t>-5,22; -0,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,7; 18,26</t>
+          <t>-39,07; 19,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 13,7</t>
+          <t>-48,94; 6,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 31,24</t>
+          <t>-40,21; 31,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,73; -0,26</t>
+          <t>-53,03; 0,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1003-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1003-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 25,98</t>
+          <t>-7,22; 28,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,88</t>
+          <t>0,0; 20,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,09</t>
+          <t>0,0; 27,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,7; 20,71</t>
+          <t>-32,71; 21,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-68,84; 993,57</t>
+          <t>-71,0; 1210,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 3,44</t>
+          <t>-7,57; 3,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 7,56</t>
+          <t>-2,88; 8,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,9; -0,38</t>
+          <t>-9,74; -0,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 3,26</t>
+          <t>-10,05; 4,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,13; 59,94</t>
+          <t>-62,15; 74,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,55; 243,09</t>
+          <t>-40,45; 256,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-93,15; 0,57</t>
+          <t>-91,68; 27,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-69,93; 74,07</t>
+          <t>-71,73; 93,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 1,64</t>
+          <t>-5,95; 1,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,75; -1,4</t>
+          <t>-8,64; -1,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 2,06</t>
+          <t>-5,14; 2,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 3,18</t>
+          <t>-6,38; 3,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,11; 31,37</t>
+          <t>-58,94; 40,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,33; -17,17</t>
+          <t>-81,69; -17,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-57,47; 36,65</t>
+          <t>-60,2; 46,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,85; 52,13</t>
+          <t>-55,47; 46,56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 2,94</t>
+          <t>-5,57; 2,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,28</t>
+          <t>-4,17; 3,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 3,36</t>
+          <t>-3,4; 3,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 2,01</t>
+          <t>-6,54; 2,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,47; 79,48</t>
+          <t>-68,01; 73,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-63,2; 104,78</t>
+          <t>-61,23; 104,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-69,99; 177,62</t>
+          <t>-71,43; 179,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-77,61; 70,36</t>
+          <t>-79,19; 76,69</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 3,84</t>
+          <t>-3,64; 3,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 2,38</t>
+          <t>-5,25; 2,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,16</t>
+          <t>-2,62; 4,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 0,14</t>
+          <t>-8,81; 0,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-54,0; 106,82</t>
+          <t>-52,0; 98,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-64,98; 64,09</t>
+          <t>-66,55; 65,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 168,82</t>
+          <t>-49,47; 177,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-81,19; 15,28</t>
+          <t>-80,31; 10,25</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,18</t>
+          <t>-3,32; 1,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,35</t>
+          <t>-3,34; 0,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,27</t>
+          <t>-2,44; 1,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,22; -0,02</t>
+          <t>-4,97; 0,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,07; 19,05</t>
+          <t>-40,34; 18,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,94; 6,74</t>
+          <t>-46,67; 12,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,21; 31,09</t>
+          <t>-39,39; 33,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,03; 0,55</t>
+          <t>-51,41; 1,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1003-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP1003-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>-2,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>59,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-40,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>-11,09%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 28,06</t>
+          <t>-5,46; 5,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,59</t>
+          <t>-1,91; 7,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,48</t>
+          <t>-6,56; 2,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,71; 21,69</t>
+          <t>-8,28; 4,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-71,0; 1210,26</t>
+          <t>-49,41; 93,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,18; 280,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,68; 87,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-61,42; 98,6</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-23,17%</t>
+          <t>-24,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>44,43%</t>
+          <t>-59,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-66,42%</t>
+          <t>-20,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-23,57%</t>
+          <t>-18,25%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 3,57</t>
+          <t>-5,52; 2,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 8,22</t>
+          <t>-8,32; -1,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,74; -0,16</t>
+          <t>-5,25; 2,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 4,08</t>
+          <t>-6,78; 3,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,15; 74,04</t>
+          <t>-58,69; 40,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 256,2</t>
+          <t>-81,31; -15,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-91,68; 27,09</t>
+          <t>-57,92; 43,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,73; 93,02</t>
+          <t>-53,02; 49,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,86</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-24,97%</t>
+          <t>-22,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-59,99%</t>
+          <t>-10,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-20,15%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,29%</t>
+          <t>-46,25%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 1,83</t>
+          <t>-5,21; 2,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,64; -1,15</t>
+          <t>-4,37; 3,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 2,18</t>
+          <t>-3,45; 3,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 3,02</t>
+          <t>-7,78; 1,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,94; 40,25</t>
+          <t>-64,9; 59,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,69; -17,63</t>
+          <t>-65,42; 105,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-60,2; 46,49</t>
+          <t>-63,27; 172,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-55,47; 46,56</t>
+          <t>-83,56; 45,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,01%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,05%</t>
+          <t>-23,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-39,34%</t>
+          <t>-53,26%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 2,82</t>
+          <t>-3,91; 3,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,1</t>
+          <t>-4,75; 2,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,4</t>
+          <t>-2,87; 4,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 2,17</t>
+          <t>-9,41; -0,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,01; 73,42</t>
+          <t>-54,72; 84,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,23; 104,53</t>
+          <t>-63,19; 68,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,43; 179,74</t>
+          <t>-50,96; 173,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-79,19; 76,69</t>
+          <t>-81,75; 13,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>-13,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-23,19%</t>
+          <t>-23,02%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>-11,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-52,25%</t>
+          <t>-33,09%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,72</t>
+          <t>-2,97; 1,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 2,23</t>
+          <t>-3,49; 0,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 4,23</t>
+          <t>-2,58; 1,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 0,33</t>
+          <t>-5,38; -0,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-52,0; 98,79</t>
+          <t>-38,7; 18,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-66,55; 65,02</t>
+          <t>-46,85; 13,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 177,07</t>
+          <t>-42,83; 31,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-80,31; 10,25</t>
+          <t>-53,72; -3,9</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-2,52</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-13,69%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-23,02%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-11,97%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-30,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 1,08</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 0,63</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,44; 1,35</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 0,02</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-40,34; 18,99</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-46,67; 12,99</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-39,39; 33,53</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-51,41; 1,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
